--- a/Data Preparation/PTD/PTD Requirement Sheet v0.2.xlsx
+++ b/Data Preparation/PTD/PTD Requirement Sheet v0.2.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21328"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{182EA4DF-DB04-491E-A3E7-61223F1CB43C}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B52236FB-AD85-4483-9A19-C63863193E78}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="82">
   <si>
     <t>Vietnam Month To Dates</t>
   </si>
@@ -287,16 +287,28 @@
     <t>For YOS of SP calculation
 Total absence days to be uploaded in last PTD period Nov 2019</t>
   </si>
+  <si>
+    <t>9ACD</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Active Calendar Days</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>For 13th Salary Eligibility Checking</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -309,7 +321,7 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -405,7 +417,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -465,12 +477,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -571,6 +594,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="=C:\WINDOWS\SYSTEM32\COMMAND.COM 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -910,14 +934,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L34"/>
+  <dimension ref="A1:L35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E28" sqref="E28"/>
+      <pane ySplit="3" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.453125" customWidth="1"/>
     <col min="2" max="2" width="23.7265625" style="20" customWidth="1"/>
@@ -926,7 +950,7 @@
     <col min="5" max="5" width="61.81640625" style="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="4" customFormat="1" ht="18">
+    <row r="1" spans="1:12" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -942,7 +966,7 @@
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
     </row>
-    <row r="2" spans="1:12" s="4" customFormat="1" ht="18">
+    <row r="2" spans="1:12" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.4">
       <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
@@ -966,7 +990,7 @@
       <c r="K2" s="8"/>
       <c r="L2" s="9"/>
     </row>
-    <row r="3" spans="1:12" s="4" customFormat="1" ht="18">
+    <row r="3" spans="1:12" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.4">
       <c r="A3" s="10"/>
       <c r="B3" s="18"/>
       <c r="C3" s="11"/>
@@ -980,7 +1004,7 @@
       <c r="K3" s="12"/>
       <c r="L3" s="12"/>
     </row>
-    <row r="4" spans="1:12" s="14" customFormat="1" ht="15.5">
+    <row r="4" spans="1:12" s="14" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A4" s="13" t="s">
         <v>6</v>
       </c>
@@ -997,7 +1021,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:12" s="14" customFormat="1" ht="31">
+    <row r="5" spans="1:12" s="14" customFormat="1" ht="31" x14ac:dyDescent="0.35">
       <c r="A5" s="13" t="s">
         <v>11</v>
       </c>
@@ -1014,7 +1038,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:12" s="14" customFormat="1" ht="31">
+    <row r="6" spans="1:12" s="14" customFormat="1" ht="31" x14ac:dyDescent="0.35">
       <c r="A6" s="24" t="s">
         <v>14</v>
       </c>
@@ -1031,7 +1055,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:12" s="43" customFormat="1" ht="31">
+    <row r="7" spans="1:12" s="43" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A7" s="38" t="s">
         <v>18</v>
       </c>
@@ -1048,7 +1072,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:12" s="14" customFormat="1" ht="46.5">
+    <row r="8" spans="1:12" s="14" customFormat="1" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A8" s="13" t="s">
         <v>21</v>
       </c>
@@ -1065,7 +1089,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="9" spans="1:12" s="47" customFormat="1" ht="46.5">
+    <row r="9" spans="1:12" s="47" customFormat="1" ht="31" x14ac:dyDescent="0.25">
       <c r="A9" s="44" t="s">
         <v>24</v>
       </c>
@@ -1082,7 +1106,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="10" spans="1:12" s="43" customFormat="1" ht="15.5">
+    <row r="10" spans="1:12" s="43" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A10" s="38" t="s">
         <v>27</v>
       </c>
@@ -1099,7 +1123,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:12" s="14" customFormat="1" ht="31">
+    <row r="11" spans="1:12" s="14" customFormat="1" ht="31" x14ac:dyDescent="0.35">
       <c r="A11" s="13" t="s">
         <v>30</v>
       </c>
@@ -1116,7 +1140,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:12" s="43" customFormat="1" ht="31">
+    <row r="12" spans="1:12" s="43" customFormat="1" ht="31" x14ac:dyDescent="0.35">
       <c r="A12" s="38" t="s">
         <v>65</v>
       </c>
@@ -1133,7 +1157,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:12" s="14" customFormat="1" ht="31">
+    <row r="13" spans="1:12" s="14" customFormat="1" ht="31" x14ac:dyDescent="0.35">
       <c r="A13" s="24" t="s">
         <v>34</v>
       </c>
@@ -1150,7 +1174,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="1:12" s="14" customFormat="1" ht="15.5">
+    <row r="14" spans="1:12" s="14" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A14" s="13" t="s">
         <v>37</v>
       </c>
@@ -1167,7 +1191,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="1:12" s="14" customFormat="1" ht="31">
+    <row r="15" spans="1:12" s="14" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A15" s="24" t="s">
         <v>40</v>
       </c>
@@ -1184,7 +1208,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:12" s="14" customFormat="1" ht="15.5">
+    <row r="16" spans="1:12" s="14" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A16" s="24" t="s">
         <v>42</v>
       </c>
@@ -1195,7 +1219,7 @@
       <c r="D16" s="27"/>
       <c r="E16" s="28"/>
     </row>
-    <row r="17" spans="1:5" s="14" customFormat="1" ht="31">
+    <row r="17" spans="1:5" s="14" customFormat="1" ht="31" x14ac:dyDescent="0.35">
       <c r="A17" s="13" t="s">
         <v>44</v>
       </c>
@@ -1212,7 +1236,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="18" spans="1:5" s="14" customFormat="1" ht="31">
+    <row r="18" spans="1:5" s="14" customFormat="1" ht="31" x14ac:dyDescent="0.35">
       <c r="A18" s="13" t="s">
         <v>47</v>
       </c>
@@ -1229,7 +1253,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="19" spans="1:5" s="14" customFormat="1" ht="15.5">
+    <row r="19" spans="1:5" s="14" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A19" s="13" t="s">
         <v>50</v>
       </c>
@@ -1246,7 +1270,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="27" spans="1:5" s="23" customFormat="1" ht="31">
+    <row r="27" spans="1:5" s="23" customFormat="1" ht="43" x14ac:dyDescent="0.35">
       <c r="A27" s="29" t="s">
         <v>53</v>
       </c>
@@ -1259,7 +1283,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="28" spans="1:5" s="23" customFormat="1" ht="46.5">
+    <row r="28" spans="1:5" s="23" customFormat="1" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A28" s="29" t="s">
         <v>55</v>
       </c>
@@ -1272,7 +1296,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="29" spans="1:5" s="23" customFormat="1" ht="29">
+    <row r="29" spans="1:5" s="23" customFormat="1" ht="43" x14ac:dyDescent="0.35">
       <c r="A29" s="29" t="s">
         <v>56</v>
       </c>
@@ -1285,7 +1309,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="30" spans="1:5" s="23" customFormat="1" ht="29">
+    <row r="30" spans="1:5" s="23" customFormat="1" ht="43" x14ac:dyDescent="0.35">
       <c r="A30" s="29" t="s">
         <v>59</v>
       </c>
@@ -1298,7 +1322,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="31" spans="1:5" s="23" customFormat="1" ht="31">
+    <row r="31" spans="1:5" s="23" customFormat="1" ht="43" x14ac:dyDescent="0.35">
       <c r="A31" s="29" t="s">
         <v>60</v>
       </c>
@@ -1311,7 +1335,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="29">
+    <row r="32" spans="1:5" ht="42" x14ac:dyDescent="0.25">
       <c r="A32" s="37" t="s">
         <v>72</v>
       </c>
@@ -1324,7 +1348,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="29">
+    <row r="33" spans="1:5" ht="42" x14ac:dyDescent="0.25">
       <c r="A33" s="37" t="s">
         <v>73</v>
       </c>
@@ -1337,7 +1361,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="29">
+    <row r="34" spans="1:5" ht="42" x14ac:dyDescent="0.25">
       <c r="A34" s="37" t="s">
         <v>74</v>
       </c>
@@ -1348,6 +1372,19 @@
       <c r="D34" s="34"/>
       <c r="E34" s="35" t="s">
         <v>71</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="48" t="s">
+        <v>79</v>
+      </c>
+      <c r="B35" s="35" t="s">
+        <v>80</v>
+      </c>
+      <c r="C35" s="35"/>
+      <c r="D35" s="35"/>
+      <c r="E35" s="35" t="s">
+        <v>81</v>
       </c>
     </row>
   </sheetData>

--- a/Data Preparation/PTD/PTD Requirement Sheet v0.2.xlsx
+++ b/Data Preparation/PTD/PTD Requirement Sheet v0.2.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21328"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B52236FB-AD85-4483-9A19-C63863193E78}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57FE0C79-8A09-4A71-BFA2-46A21C640BDF}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-4420" yWindow="-14510" windowWidth="25820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="83">
   <si>
     <t>Vietnam Month To Dates</t>
   </si>
@@ -47,18 +47,12 @@
     <t>Statutory Reports</t>
   </si>
   <si>
-    <t>Amount of the total gross earning</t>
-  </si>
-  <si>
     <t>/106</t>
   </si>
   <si>
     <t>Taxable Income</t>
   </si>
   <si>
-    <t>Total taxable income. The finalisation calculation uses the year to date figures to calculate a finalisation amount</t>
-  </si>
-  <si>
     <t>/121</t>
   </si>
   <si>
@@ -187,19 +181,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>9130</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>13th Salary Accrual</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>For 13th Salary Accrual
-Accmulated total amt to be uploaded in last PTD period Nov 2019</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>2410</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -213,16 +194,6 @@
   </si>
   <si>
     <t>Parntl/Prentl/Miscar vPay</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>For Maternity Lv
-Accmulated total amt to be uploaded in last PTD period Nov 2019</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>For Parntl/Prentl/Miscar Lv
-Accmulated total amt to be uploaded in last PTD period Nov 2019</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -251,18 +222,10 @@
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
-    <t>For Executive Bonus Accrual
-Accmulated total amt to be uploaded in last PTD period Nov 2019</t>
-  </si>
-  <si>
     <t>Severance Accrual</t>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
-    <t>For Serverance Accrual
-Accmulated total amt to be uploaded in last PTD period Nov 2019</t>
-  </si>
-  <si>
     <t>9113</t>
   </si>
   <si>
@@ -280,23 +243,92 @@
 Wt's mapped to cumulation-71 forms /032 which accumulates to /203</t>
   </si>
   <si>
+    <t>9ACD</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Active Calendar Days</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Amount of the total gross earninge</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> (gross-up ER part amount included)</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Total taxable income. The finalisation calculation uses the year to date figures to calculate a finalisation amount  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(gross-up ER part amount included)</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>no longer needed</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Open for check</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>For YOS of SP calculation
-Total working days  to be uploaded in last PTD period Nov 2019</t>
+Total working days  to be uploaded in last PTD period Feb 2020</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>For YOS of SP calculation
-Total absence days to be uploaded in last PTD period Nov 2019</t>
-  </si>
-  <si>
-    <t>9ACD</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Active Calendar Days</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>For 13th Salary Eligibility Checking</t>
+Total absence days to be uploaded in last PTD period Feb 2020</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Open for check (calendar days or working days)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>For 13th Salary Accrual
+Accmulated total amt to be uploaded in last PTD period Feb 2020</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>For Maternity Lv
+Accmulated total amt to be uploaded in last PTD period Feb 2020</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>For Parntl/Prentl/Miscar Lv
+Accmulated total amt to be uploaded in last PTD period Feb 2020</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>For Executive Bonus Accrual
+Accmulated total amt to be uploaded in last PTD period Feb 2020</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>For Serverance Accrual
+Accmulated total amt to be uploaded in last PTD period Feb 2020</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>For 13th Salary Eligibility Checking (from Jan 2020)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -304,7 +336,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -375,6 +407,19 @@
     <font>
       <strike/>
       <sz val="12"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
@@ -493,7 +538,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -540,17 +585,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="justify" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -582,19 +616,32 @@
       <alignment vertical="justify" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="=C:\WINDOWS\SYSTEM32\COMMAND.COM 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -934,11 +981,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L35"/>
+  <dimension ref="A1:L34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D34" sqref="D34"/>
+      <pane ySplit="3" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -1004,7 +1051,7 @@
       <c r="K3" s="12"/>
       <c r="L3" s="12"/>
     </row>
-    <row r="4" spans="1:12" s="14" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" s="14" customFormat="1" ht="31" x14ac:dyDescent="0.35">
       <c r="A4" s="13" t="s">
         <v>6</v>
       </c>
@@ -1018,15 +1065,15 @@
         <v>9</v>
       </c>
       <c r="E4" s="19" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" s="14" customFormat="1" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="13" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" s="14" customFormat="1" ht="31" x14ac:dyDescent="0.35">
-      <c r="A5" s="13" t="s">
+      <c r="B5" s="22" t="s">
         <v>11</v>
-      </c>
-      <c r="B5" s="22" t="s">
-        <v>12</v>
       </c>
       <c r="C5" s="15" t="s">
         <v>8</v>
@@ -1035,100 +1082,103 @@
         <v>9</v>
       </c>
       <c r="E5" s="19" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" s="38" customFormat="1" ht="31" x14ac:dyDescent="0.35">
+      <c r="A6" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="34" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" s="14" customFormat="1" ht="31" x14ac:dyDescent="0.35">
-      <c r="A6" s="24" t="s">
+      <c r="C6" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="25" t="s">
+      <c r="E6" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="26" t="s">
+    </row>
+    <row r="7" spans="1:12" s="38" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="27" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" s="28" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" s="43" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="38" t="s">
+      <c r="D7" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="37" t="s">
         <v>18</v>
-      </c>
-      <c r="B7" s="39" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="40" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" s="41" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" s="42" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:12" s="14" customFormat="1" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A8" s="13" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B8" s="22" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C8" s="15" t="s">
         <v>8</v>
       </c>
       <c r="D8" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="19" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" s="50" customFormat="1" ht="31" x14ac:dyDescent="0.35">
+      <c r="A9" s="46" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="E8" s="19" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" s="47" customFormat="1" ht="31" x14ac:dyDescent="0.25">
-      <c r="A9" s="44" t="s">
+      <c r="C9" s="48" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="48" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="45" t="s">
+      <c r="E9" s="47" t="s">
+        <v>67</v>
+      </c>
+      <c r="F9" s="49" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" s="38" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A10" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="46" t="s">
+      <c r="B10" s="34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="46" t="s">
-        <v>26</v>
-      </c>
-      <c r="E9" s="45" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" s="43" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="38" t="s">
+      <c r="D10" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" s="37" t="s">
         <v>27</v>
-      </c>
-      <c r="B10" s="39" t="s">
-        <v>28</v>
-      </c>
-      <c r="C10" s="41" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" s="41" t="s">
-        <v>16</v>
-      </c>
-      <c r="E10" s="42" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:12" s="14" customFormat="1" ht="31" x14ac:dyDescent="0.35">
       <c r="A11" s="13" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B11" s="22" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C11" s="15" t="s">
         <v>8</v>
@@ -1137,49 +1187,55 @@
         <v>9</v>
       </c>
       <c r="E11" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="F11" s="45" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" s="38" customFormat="1" ht="31" x14ac:dyDescent="0.35">
+      <c r="A12" s="33" t="s">
+        <v>58</v>
+      </c>
+      <c r="B12" s="34" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" s="37" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" s="14" customFormat="1" ht="31" x14ac:dyDescent="0.35">
+      <c r="A13" s="40" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" s="43" customFormat="1" ht="31" x14ac:dyDescent="0.35">
-      <c r="A12" s="38" t="s">
-        <v>65</v>
-      </c>
-      <c r="B12" s="39" t="s">
+      <c r="B13" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="C12" s="40" t="s">
+      <c r="C13" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="41" t="s">
-        <v>16</v>
-      </c>
-      <c r="E12" s="42" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" s="14" customFormat="1" ht="31" x14ac:dyDescent="0.35">
-      <c r="A13" s="24" t="s">
+      <c r="D13" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="44" t="s">
         <v>34</v>
       </c>
-      <c r="B13" s="25" t="s">
-        <v>35</v>
-      </c>
-      <c r="C13" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="D13" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="E13" s="28" t="s">
-        <v>36</v>
+      <c r="F13" s="45" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="14" spans="1:12" s="14" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A14" s="13" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B14" s="22" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C14" s="15" t="s">
         <v>8</v>
@@ -1188,77 +1244,86 @@
         <v>9</v>
       </c>
       <c r="E14" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="F14" s="45" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" s="38" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A15" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="B15" s="34" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" s="14" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="24" t="s">
+      <c r="C15" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" s="37" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" s="38" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A16" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="B15" s="25" t="s">
+      <c r="B16" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="C15" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="D15" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="E15" s="28" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" s="14" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A16" s="24" t="s">
+      <c r="C16" s="35"/>
+      <c r="D16" s="36"/>
+      <c r="E16" s="37"/>
+    </row>
+    <row r="17" spans="1:6" s="14" customFormat="1" ht="31" x14ac:dyDescent="0.35">
+      <c r="A17" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="B16" s="25" t="s">
+      <c r="B17" s="22" t="s">
         <v>43</v>
-      </c>
-      <c r="C16" s="26"/>
-      <c r="D16" s="27"/>
-      <c r="E16" s="28"/>
-    </row>
-    <row r="17" spans="1:5" s="14" customFormat="1" ht="31" x14ac:dyDescent="0.35">
-      <c r="A17" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="B17" s="22" t="s">
-        <v>45</v>
       </c>
       <c r="C17" s="14" t="s">
         <v>8</v>
       </c>
       <c r="D17" s="14" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E17" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" s="45" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" s="14" customFormat="1" ht="31" x14ac:dyDescent="0.35">
+      <c r="A18" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="B18" s="22" t="s">
         <v>46</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" s="14" customFormat="1" ht="31" x14ac:dyDescent="0.35">
-      <c r="A18" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="B18" s="22" t="s">
-        <v>48</v>
       </c>
       <c r="C18" s="14" t="s">
         <v>8</v>
       </c>
       <c r="D18" s="14" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E18" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="F18" s="45" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" s="14" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A19" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="B19" s="22" t="s">
         <v>49</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" s="14" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A19" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="B19" s="22" t="s">
-        <v>51</v>
       </c>
       <c r="C19" s="15" t="s">
         <v>8</v>
@@ -1267,124 +1332,117 @@
         <v>9</v>
       </c>
       <c r="E19" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="F19" s="14" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" s="23" customFormat="1" ht="43" x14ac:dyDescent="0.35">
+      <c r="A27" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="B27" s="27" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" s="23" customFormat="1" ht="43" x14ac:dyDescent="0.35">
-      <c r="A27" s="29" t="s">
+      <c r="C27" s="26"/>
+      <c r="D27" s="26"/>
+      <c r="E27" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="F27" s="23" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" s="23" customFormat="1" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A28" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="B27" s="32" t="s">
+      <c r="B28" s="27" t="s">
+        <v>59</v>
+      </c>
+      <c r="C28" s="26"/>
+      <c r="D28" s="26"/>
+      <c r="E28" s="25" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" s="23" customFormat="1" ht="43" x14ac:dyDescent="0.35">
+      <c r="A29" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="C27" s="31"/>
-      <c r="D27" s="31"/>
-      <c r="E27" s="30" t="s">
+      <c r="B29" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="C29" s="26"/>
+      <c r="D29" s="26"/>
+      <c r="E29" s="25" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" s="23" customFormat="1" ht="43" x14ac:dyDescent="0.35">
+      <c r="A30" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="B30" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="C30" s="26"/>
+      <c r="D30" s="26"/>
+      <c r="E30" s="25" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="42" x14ac:dyDescent="0.25">
+      <c r="A31" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="B31" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="C31" s="29"/>
+      <c r="D31" s="29"/>
+      <c r="E31" s="30" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="28" spans="1:5" s="23" customFormat="1" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="A28" s="29" t="s">
-        <v>55</v>
-      </c>
-      <c r="B28" s="32" t="s">
-        <v>66</v>
-      </c>
-      <c r="C28" s="31"/>
-      <c r="D28" s="31"/>
-      <c r="E28" s="30" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" s="23" customFormat="1" ht="43" x14ac:dyDescent="0.35">
-      <c r="A29" s="29" t="s">
-        <v>56</v>
-      </c>
-      <c r="B29" s="32" t="s">
-        <v>57</v>
-      </c>
-      <c r="C29" s="31"/>
-      <c r="D29" s="31"/>
-      <c r="E29" s="30" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" s="23" customFormat="1" ht="43" x14ac:dyDescent="0.35">
-      <c r="A30" s="29" t="s">
-        <v>59</v>
-      </c>
-      <c r="B30" s="32" t="s">
+    <row r="32" spans="1:6" ht="42" x14ac:dyDescent="0.25">
+      <c r="A32" s="32" t="s">
+        <v>64</v>
+      </c>
+      <c r="B32" s="31" t="s">
         <v>61</v>
       </c>
-      <c r="C30" s="31"/>
-      <c r="D30" s="31"/>
-      <c r="E30" s="30" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" s="23" customFormat="1" ht="43" x14ac:dyDescent="0.35">
-      <c r="A31" s="29" t="s">
-        <v>60</v>
-      </c>
-      <c r="B31" s="32" t="s">
+      <c r="C32" s="29"/>
+      <c r="D32" s="29"/>
+      <c r="E32" s="30" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="42" x14ac:dyDescent="0.25">
+      <c r="A33" s="32" t="s">
+        <v>65</v>
+      </c>
+      <c r="B33" s="31" t="s">
         <v>62</v>
       </c>
-      <c r="C31" s="31"/>
-      <c r="D31" s="31"/>
-      <c r="E31" s="30" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="42" x14ac:dyDescent="0.25">
-      <c r="A32" s="37" t="s">
-        <v>72</v>
-      </c>
-      <c r="B32" s="33" t="s">
-        <v>67</v>
-      </c>
-      <c r="C32" s="34"/>
-      <c r="D32" s="34"/>
-      <c r="E32" s="35" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" ht="42" x14ac:dyDescent="0.25">
-      <c r="A33" s="37" t="s">
-        <v>73</v>
-      </c>
-      <c r="B33" s="36" t="s">
+      <c r="C33" s="29"/>
+      <c r="D33" s="29"/>
+      <c r="E33" s="30" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="39" t="s">
         <v>68</v>
       </c>
-      <c r="C33" s="34"/>
-      <c r="D33" s="34"/>
-      <c r="E33" s="35" t="s">
+      <c r="B34" s="30" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" ht="42" x14ac:dyDescent="0.25">
-      <c r="A34" s="37" t="s">
-        <v>74</v>
-      </c>
-      <c r="B34" s="36" t="s">
-        <v>70</v>
-      </c>
-      <c r="C34" s="34"/>
-      <c r="D34" s="34"/>
-      <c r="E34" s="35" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="48" t="s">
-        <v>79</v>
-      </c>
-      <c r="B35" s="35" t="s">
-        <v>80</v>
-      </c>
-      <c r="C35" s="35"/>
-      <c r="D35" s="35"/>
-      <c r="E35" s="35" t="s">
-        <v>81</v>
+      <c r="C34" s="30"/>
+      <c r="D34" s="30"/>
+      <c r="E34" s="30" t="s">
+        <v>82</v>
       </c>
     </row>
   </sheetData>
